--- a/aichan/558387860643076666_2021-08-13_17-50-05.xlsx
+++ b/aichan/558387860643076666_2021-08-13_17-50-05.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -562,10 +578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-15 16:14:08</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44423.67648148148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -629,10 +643,8 @@
           <t>5164759099</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-15 15:35:50</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44423.64988425926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -696,10 +708,8 @@
           <t>5164759099</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-15 14:07:57</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44423.58885416666</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -775,10 +785,8 @@
           <t>5148045858</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-15 12:05:26</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44423.50377314815</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -846,10 +854,8 @@
           <t>5148045858</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-15 12:03:46</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44423.50261574074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -917,10 +923,8 @@
           <t>5154457966</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-15 10:20:08</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44423.43064814815</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -980,10 +984,8 @@
           <t>5162082922</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-15 06:49:40</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44423.28449074074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1047,10 +1049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-14 23:42:36</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44422.98791666667</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1130,10 +1130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:11:12</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44422.84111111111</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1193,10 +1191,8 @@
           <t>5158265170</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:30:32</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44422.81287037037</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1272,10 +1268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:18:26</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44422.80446759259</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1339,10 +1333,8 @@
           <t>5157524172</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:11:31</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44422.75799768518</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1410,10 +1402,8 @@
           <t>5156039878</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:00:14</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44422.62516203704</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1477,10 +1467,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:29:25</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44422.60376157407</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1556,10 +1544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:48:34</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44422.53372685185</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1635,10 +1621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:57:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44422.49792824074</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1709,10 +1693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:53:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44422.49548611111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1776,10 +1758,8 @@
           <t>5154457966</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44422.49241898148</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1847,10 +1827,8 @@
           <t>5154290874</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:28:30</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44422.478125</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1914,10 +1892,8 @@
           <t>5153955721</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:44:13</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44422.44737268519</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1985,10 +1961,8 @@
           <t>5148288674</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:36:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44422.44181712963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2060,10 +2034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:18:25</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44422.42945601852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2131,10 +2103,8 @@
           <t>5148288674</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:07:16</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44422.42171296296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2198,10 +2168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-14 10:07:04</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44422.42157407408</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2273,10 +2241,8 @@
           <t>5153619801</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-14 09:58:15</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44422.41545138889</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -2340,10 +2306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-14 08:43:21</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44422.3634375</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2415,10 +2379,8 @@
           <t>5148288674</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-14 08:40:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44422.3615625</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2478,10 +2440,8 @@
           <t>5152034653</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-14 01:09:02</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44422.04793981482</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2549,10 +2509,8 @@
           <t>5151944383</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:54:36</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44422.03791666667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2624,10 +2582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:52:01</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44422.03612268518</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2699,10 +2655,8 @@
           <t>5151932764</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:51:34</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44422.03581018518</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2774,10 +2728,8 @@
           <t>5151931267</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:50:56</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44422.03537037037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2845,10 +2797,8 @@
           <t>5151781668</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:30:22</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44422.02108796296</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2924,10 +2874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:08:17</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44422.00575231481</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2991,10 +2939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-14 00:06:15</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44422.00434027778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3058,10 +3004,8 @@
           <t>5151488858</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:54:24</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44421.99611111111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3121,10 +3065,8 @@
           <t>5151405980</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:43:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44421.9887962963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3188,10 +3130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:42:55</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44421.98813657407</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3255,10 +3195,8 @@
           <t>5151139738</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:16:48</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44421.97</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
@@ -3330,10 +3268,8 @@
           <t>5151035642</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-13 23:05:31</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44421.96216435185</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3397,10 +3333,8 @@
           <t>5150647772</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:26:54</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44421.93534722222</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3476,10 +3410,8 @@
           <t>5150616138</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:23:13</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44421.93278935185</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3551,10 +3483,8 @@
           <t>5150615802</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:23:06</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44421.93270833333</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3614,10 +3544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:04:31</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44421.91980324074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3685,10 +3613,8 @@
           <t>5150382116</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-13 22:00:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44421.91690972223</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3764,10 +3690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:59:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44421.91658564815</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3835,10 +3759,8 @@
           <t>5150371625</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:59:32</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44421.91634259259</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3902,10 +3824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:55:24</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44421.91347222222</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3969,10 +3889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:28:41</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44421.89491898148</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4044,10 +3962,8 @@
           <t>5150056508</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:28:30</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44421.89479166667</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4115,10 +4031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:26:41</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44421.8935300926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4190,10 +4104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:24:54</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44421.89229166666</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4265,10 +4177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:19:31</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44421.88855324074</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4336,10 +4246,8 @@
           <t>5149833134</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:06:12</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44421.87930555556</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4411,10 +4319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:05:57</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44421.87913194444</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4478,10 +4384,8 @@
           <t>5149811485</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-13 21:03:20</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44421.87731481482</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4558,10 +4462,8 @@
           <t>5149764223</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:59:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44421.87444444445</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4629,10 +4531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:58:26</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44421.87391203704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4700,10 +4600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:57:00</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44421.87291666667</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4779,10 +4677,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:56:07</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44421.87230324074</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4854,10 +4750,8 @@
           <t>5149622602</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:43:38</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44421.86363425926</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4925,10 +4819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:41:46</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44421.86233796296</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5000,10 +4892,8 @@
           <t>5149534250</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:41:26</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44421.86210648148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5067,10 +4957,8 @@
           <t>5149581447</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:39:14</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44421.8605787037</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5146,10 +5034,8 @@
           <t>5149552844</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:36:22</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44421.85858796296</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5216,10 +5102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:35:16</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44421.85782407408</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5283,10 +5167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:34:56</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44421.85759259259</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5354,10 +5236,8 @@
           <t>5149534250</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:34:45</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44421.85746527778</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5421,10 +5301,8 @@
           <t>5147943778</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:27:36</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44421.8525</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5488,10 +5366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:25:46</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44421.85122685185</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5555,10 +5431,8 @@
           <t>5149443470</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:24:34</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44421.85039351852</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5626,10 +5500,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:18:21</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44421.84607638889</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5697,10 +5569,8 @@
           <t>5149367528</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:16:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44421.8446412037</v>
       </c>
       <c r="I74" t="n">
         <v>8</v>
@@ -5768,10 +5638,8 @@
           <t>5149323183</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:12:09</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44421.84177083334</v>
       </c>
       <c r="I75" t="n">
         <v>31</v>
@@ -5843,10 +5711,8 @@
           <t>5148041948</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:10:48</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44421.84083333334</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5914,10 +5780,8 @@
           <t>5149267827</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:05:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44421.83732638889</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -5985,10 +5849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:04:44</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44421.83662037037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6056,10 +5918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:04:37</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44421.83653935185</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6127,10 +5987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:02:00</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44421.83472222222</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6194,10 +6052,8 @@
           <t>5149231055</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-13 20:01:31</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44421.83438657408</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6265,10 +6121,8 @@
           <t>5149206464</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:59:11</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44421.8327662037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6333,10 +6187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:58:39</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44421.83239583333</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6400,10 +6252,8 @@
           <t>5149157549</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:55:00</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44421.82986111111</v>
       </c>
       <c r="I84" t="n">
         <v>4</v>
@@ -6480,10 +6330,8 @@
           <t>5148018083</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:54:24</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44421.82944444445</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6549,10 +6397,8 @@
           <t>5148045858</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:51:11</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44421.82721064815</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -6620,10 +6466,8 @@
           <t>5149122126</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:50:42</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44421.826875</v>
       </c>
       <c r="I87" t="n">
         <v>29</v>
@@ -6699,10 +6543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:49:25</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44421.8259837963</v>
       </c>
       <c r="I88" t="n">
         <v>14</v>
@@ -6766,10 +6608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:44:22</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44421.82247685185</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6845,10 +6685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:41:15</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44421.8203125</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6908,10 +6746,8 @@
           <t>5147992257</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:40:57</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44421.82010416667</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6987,10 +6823,8 @@
           <t>5149013290</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:39:35</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44421.81915509259</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7062,10 +6896,8 @@
           <t>5149004048</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:38:23</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44421.81832175926</v>
       </c>
       <c r="I93" t="n">
         <v>6</v>
@@ -7141,10 +6973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:36:43</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44421.81716435185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7212,10 +7042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:36:34</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44421.81706018518</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7291,10 +7119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:31:18</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44421.81340277778</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7358,10 +7184,8 @@
           <t>5148935893</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:31:08</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44421.81328703704</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7425,10 +7249,8 @@
           <t>5148908822</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:57</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44421.81177083333</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7500,10 +7322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:45</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44421.81163194445</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7567,10 +7387,8 @@
           <t>5148849437</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:41</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44421.81158564815</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7634,10 +7452,8 @@
           <t>5148886962</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:28:33</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44421.81149305555</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7701,10 +7517,8 @@
           <t>5148897399</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:27:39</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44421.81086805555</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7772,10 +7586,8 @@
           <t>5148886962</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:26:32</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44421.81009259259</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7843,10 +7655,8 @@
           <t>5148849437</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:23:00</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44421.80763888889</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -7910,10 +7720,8 @@
           <t>5148851657</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:22:21</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44421.8071875</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -7985,10 +7793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:20:03</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44421.80559027778</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8056,10 +7862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:18:27</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44421.80447916667</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8135,10 +7939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:17:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44421.80349537037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8210,10 +8012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:16:01</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44421.80278935185</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8285,10 +8085,8 @@
           <t>5148024097</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:46</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44421.80122685185</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8352,10 +8150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:35</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44421.80109953704</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8419,10 +8215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:09</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44421.80079861111</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8503,10 +8297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:13:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44421.80078703703</v>
       </c>
       <c r="I113" t="n">
         <v>11</v>
@@ -8570,10 +8362,8 @@
           <t>5148479091</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:34</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44421.80039351852</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8633,10 +8423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:12:10</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44421.80011574074</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8712,10 +8500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:45</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44421.79982638889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8791,10 +8577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:11:14</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44421.79946759259</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8864,10 +8648,8 @@
           <t>5148045858</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:09:15</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44421.79809027778</v>
       </c>
       <c r="I118" t="n">
         <v>8</v>
@@ -8941,10 +8723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:07:11</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44421.79665509259</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9008,10 +8788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:05:50</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44421.79571759259</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9079,10 +8857,8 @@
           <t>5148538976</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:04:49</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44421.79501157408</v>
       </c>
       <c r="I121" t="n">
         <v>4</v>
@@ -9158,10 +8934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:04:48</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44421.795</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9225,10 +8999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:04:17</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44421.79464120371</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9300,10 +9072,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:04:07</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44421.79452546296</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9371,10 +9141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:03:19</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44421.7939699074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9446,10 +9214,8 @@
           <t>5148646805</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:17</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44421.79325231481</v>
       </c>
       <c r="I126" t="n">
         <v>5</v>
@@ -9517,10 +9283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44421.7931712963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9599,10 +9363,8 @@
           <t>5148639921</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:02:10</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44421.7931712963</v>
       </c>
       <c r="I128" t="n">
         <v>49</v>
@@ -9666,10 +9428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:01:25</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44421.79265046296</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9733,10 +9493,8 @@
           <t>5148143040</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:00:59</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44421.79234953703</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9804,10 +9562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:59:32</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44421.79134259259</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9867,10 +9623,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:58:48</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44421.79083333333</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9942,10 +9696,8 @@
           <t>5148606298</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:58:08</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44421.79037037037</v>
       </c>
       <c r="I133" t="n">
         <v>20</v>
@@ -10010,10 +9762,8 @@
           <t>5148603573</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:57:56</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44421.79023148148</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10073,10 +9823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:57:06</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44421.78965277778</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10152,10 +9900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:56:54</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44421.78951388889</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10223,10 +9969,8 @@
           <t>5147953931</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:56:44</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44421.78939814815</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10302,10 +10046,8 @@
           <t>5148024097</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:56:40</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44421.78935185185</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10369,10 +10111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:54:59</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44421.78818287037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10444,10 +10184,8 @@
           <t>5148288674</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:54:30</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44421.78784722222</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10511,10 +10249,8 @@
           <t>5148571276</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:54:29</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44421.78783564815</v>
       </c>
       <c r="I141" t="n">
         <v>5</v>
@@ -10590,10 +10326,8 @@
           <t>5148556916</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:53:17</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44421.78700231481</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10657,10 +10391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:53:06</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44421.786875</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10736,10 +10468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:52:28</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44421.78643518518</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10815,10 +10545,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:52:17</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44421.78630787037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10890,10 +10618,8 @@
           <t>5148545776</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:54</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44421.78604166667</v>
       </c>
       <c r="I146" t="n">
         <v>8</v>
@@ -10969,10 +10695,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:52</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44421.78601851852</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11036,10 +10760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44421.78587962963</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11115,10 +10837,8 @@
           <t>5148538976</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44421.78578703704</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11194,10 +10914,8 @@
           <t>5148528968</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:06</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44421.78548611111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11269,10 +10987,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:51:05</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44421.78547453704</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11348,10 +11064,8 @@
           <t>5148531734</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:50:42</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44421.78520833333</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11427,10 +11141,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:45:57</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44421.78190972222</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11506,10 +11218,8 @@
           <t>5148479091</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:45:40</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44421.78171296296</v>
       </c>
       <c r="I154" t="n">
         <v>5</v>
@@ -11585,10 +11295,8 @@
           <t>5147992257</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:43:55</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44421.78049768518</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11652,10 +11360,8 @@
           <t>5148459152</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:43:54</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44421.78048611111</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11719,10 +11425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:43:07</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44421.77994212963</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11786,10 +11490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:42:06</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44421.77923611111</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11861,10 +11563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:58</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44421.77914351852</v>
       </c>
       <c r="I159" t="n">
         <v>8</v>
@@ -11936,10 +11636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:29</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44421.77880787037</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12003,10 +11701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:29</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44421.77880787037</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12074,10 +11770,8 @@
           <t>5148438508</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:27</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44421.77878472222</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12141,10 +11835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:26</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44421.77877314815</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12211,10 +11903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:16</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44421.77865740741</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12278,10 +11968,8 @@
           <t>5148437788</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:16</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44421.77865740741</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12361,10 +12049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:41:11</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44421.77859953704</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12428,10 +12114,8 @@
           <t>5148436649</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:56</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44421.77842592593</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12499,10 +12183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:53</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44421.7783912037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12574,10 +12256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:46</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44421.77831018518</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12641,10 +12321,8 @@
           <t>5148430606</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:36</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44421.77819444444</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12712,10 +12390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:40:07</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44421.7778587963</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12783,10 +12459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:39:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44421.7777199074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12862,10 +12536,8 @@
           <t>5148338852</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:39:50</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44421.77766203704</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12933,10 +12605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:39:19</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44421.77730324074</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13000,10 +12670,8 @@
           <t>5148411106</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:38:29</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44421.77672453703</v>
       </c>
       <c r="I175" t="n">
         <v>16</v>
@@ -13071,10 +12739,8 @@
           <t>5148394821</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:37:49</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44421.77626157407</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13146,10 +12812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:36:05</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44421.77505787037</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13213,10 +12877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:35:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44421.77445601852</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
@@ -13284,10 +12946,8 @@
           <t>5148338852</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:35:09</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44421.77440972222</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13355,10 +13015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:35:03</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44421.77434027778</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13430,10 +13088,8 @@
           <t>5148200963</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:35:03</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44421.77434027778</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13497,10 +13153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:34:35</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44421.7740162037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13564,10 +13218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:34:21</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44421.77385416667</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13635,10 +13287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:33:48</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44421.77347222222</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13698,10 +13348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:33:01</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44421.77292824074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13765,10 +13413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:32:16</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44421.77240740741</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13836,10 +13482,8 @@
           <t>5148345704</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:32:15</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44421.77239583333</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13907,10 +13551,8 @@
           <t>5148338852</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:31:41</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44421.77200231481</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13978,10 +13620,8 @@
           <t>5148323418</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:30:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44421.77083333334</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14053,10 +13693,8 @@
           <t>5148321451</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:29:23</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44421.77040509259</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14132,10 +13770,8 @@
           <t>5147943778</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:28:58</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44421.77011574074</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14207,10 +13843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:27:03</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44421.76878472222</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14274,10 +13908,8 @@
           <t>5148286112</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:49</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44421.76862268519</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14353,10 +13985,8 @@
           <t>5148288674</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:26:33</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44421.7684375</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14416,10 +14046,8 @@
           <t>5148286112</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:52</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44421.76796296296</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14483,10 +14111,8 @@
           <t>5148285858</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:48</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44421.76791666666</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14554,10 +14180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:41</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44421.76783564815</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14625,10 +14249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:25:41</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44421.76783564815</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14696,10 +14318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:24:44</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44421.76717592592</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14775,10 +14395,8 @@
           <t>5148267605</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:24:26</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44421.76696759259</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14854,10 +14472,8 @@
           <t>5148143040</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:23:41</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44421.76644675926</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -14921,10 +14537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:23:19</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44421.76619212963</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -14988,10 +14602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:23:07</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44421.76605324074</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15063,10 +14675,8 @@
           <t>5148038894</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:23:04</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44421.76601851852</v>
       </c>
       <c r="I204" t="n">
         <v>5</v>
@@ -15134,10 +14744,8 @@
           <t>5148249897</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:22:47</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44421.76582175926</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15205,10 +14813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:22:23</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44421.76554398148</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15284,10 +14890,8 @@
           <t>5148041948</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:21:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44421.76513888889</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15355,10 +14959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:20:38</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44421.76432870371</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15434,10 +15036,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:20:07</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44421.76396990741</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15501,10 +15101,8 @@
           <t>5148015810</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:19:56</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44421.76384259259</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15581,10 +15179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:19:54</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44421.76381944444</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15656,10 +15252,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:19:10</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44421.76331018518</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15735,10 +15329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:18:57</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44421.76315972222</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15806,10 +15398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:18:01</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44421.76251157407</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15885,10 +15475,8 @@
           <t>5148200963</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:17:10</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44421.7619212963</v>
       </c>
       <c r="I215" t="n">
         <v>6</v>
@@ -15964,10 +15552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:17:06</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44421.761875</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16043,10 +15629,8 @@
           <t>5148184429</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:16:40</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44421.76157407407</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16122,10 +15706,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:16:35</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44421.7615162037</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16189,10 +15771,8 @@
           <t>5148023199</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:16:30</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44421.76145833333</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16257,10 +15837,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:16:08</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44421.7612037037</v>
       </c>
       <c r="I220" t="n">
         <v>8</v>
@@ -16328,10 +15906,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:16:03</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44421.76114583333</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16403,10 +15979,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:15:47</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44421.76096064815</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16474,10 +16048,8 @@
           <t>5147993821</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:14:55</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44421.76035879629</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16550,10 +16122,8 @@
           <t>5148172842</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:14:39</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44421.76017361111</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16622,10 +16192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:14:16</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44421.75990740741</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16693,10 +16261,8 @@
           <t>5148165947</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:13:56</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44421.75967592592</v>
       </c>
       <c r="I226" t="n">
         <v>31</v>
@@ -16774,10 +16340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:13:33</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44421.75940972222</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16845,10 +16409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:13:29</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44421.75936342592</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16916,10 +16478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:12:42</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44421.75881944445</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16991,10 +16551,8 @@
           <t>5147998168</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:12:08</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44421.75842592592</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17070,10 +16628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:12:01</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44421.75834490741</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17141,10 +16697,8 @@
           <t>5148134817</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:55</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44421.75827546296</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17216,10 +16770,8 @@
           <t>5148138981</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:51</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44421.75822916667</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17283,10 +16835,8 @@
           <t>5148143040</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:47</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44421.75818287037</v>
       </c>
       <c r="I234" t="n">
         <v>15</v>
@@ -17346,10 +16896,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:40</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44421.75810185185</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17417,10 +16965,8 @@
           <t>5148137834</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:34</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44421.75803240741</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17484,10 +17030,8 @@
           <t>5148089052</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:34</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44421.75803240741</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17563,10 +17107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:32</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44421.75800925926</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17631,10 +17173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:29</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44421.75797453704</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17703,10 +17243,8 @@
           <t>5148089052</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:27</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44421.75795138889</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -17782,10 +17320,8 @@
           <t>5147993821</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:26</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44421.75793981482</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -17861,10 +17397,8 @@
           <t>5147981859</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:03</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44421.75767361111</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -17936,10 +17470,8 @@
           <t>5148071345</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:11:00</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44421.75763888889</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18015,10 +17547,8 @@
           <t>5148135101</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:10:50</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44421.75752314815</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18086,10 +17616,8 @@
           <t>5148124481</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:10:45</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44421.75746527778</v>
       </c>
       <c r="I245" t="n">
         <v>4</v>
@@ -18157,10 +17685,8 @@
           <t>5148124251</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:10:41</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44421.75741898148</v>
       </c>
       <c r="I246" t="n">
         <v>6</v>
@@ -18224,10 +17750,8 @@
           <t>5148089052</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:10:41</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44421.75741898148</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18299,10 +17823,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:10:10</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44421.75706018518</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18378,10 +17900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:09:51</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44421.75684027778</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18453,10 +17973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:09:49</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44421.75681712963</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18545,10 +18063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:09:38</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44421.75668981481</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18616,10 +18132,8 @@
           <t>5148023199</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:09:28</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44421.75657407408</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18695,10 +18209,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:09:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44421.75634259259</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18766,10 +18278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:09:04</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44421.7562962963</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18833,10 +18343,8 @@
           <t>5147953931</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:09:01</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44421.75626157408</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18921,10 +18429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:08:49</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44421.75612268518</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18992,10 +18498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:08:45</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44421.75607638889</v>
       </c>
       <c r="I257" t="n">
         <v>211</v>
@@ -19067,10 +18571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:08:38</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44421.75599537037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19142,10 +18644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:08:35</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44421.75596064814</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19221,10 +18721,8 @@
           <t>5147943778</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:08:21</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44421.75579861111</v>
       </c>
       <c r="I260" t="n">
         <v>9</v>
@@ -19296,10 +18794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:08:12</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44421.75569444444</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19363,10 +18859,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:07:53</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44421.75547453704</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19438,10 +18932,8 @@
           <t>5148102223</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:07:50</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44421.75543981481</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19506,10 +18998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:07:44</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44421.75537037037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19581,10 +19071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:07:40</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44421.75532407407</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19652,10 +19140,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:07:39</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44421.7553125</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19723,10 +19209,8 @@
           <t>5148100166</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:07:09</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44421.75496527777</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19798,10 +19282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:06:55</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44421.75480324074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19878,10 +19360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:06:37</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44421.7545949074</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19949,10 +19429,8 @@
           <t>5148089052</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:06:34</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44421.75456018518</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20021,10 +19499,8 @@
           <t>5147993821</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:06:04</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44421.75421296297</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20096,10 +19572,8 @@
           <t>5148086869</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:57</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44421.75413194444</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20167,10 +19641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:53</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44421.75408564815</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20230,10 +19702,8 @@
           <t>5148077595</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:50</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44421.75405092593</v>
       </c>
       <c r="I274" t="n">
         <v>3</v>
@@ -20293,10 +19763,8 @@
           <t>5147981859</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:39</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44421.75392361111</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20368,10 +19836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:37</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44421.75390046297</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20444,10 +19910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:35</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44421.75387731481</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20520,10 +19984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:17</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44421.75366898148</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20591,10 +20053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:10</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44421.75358796296</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20666,10 +20126,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:10</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44421.75358796296</v>
       </c>
       <c r="I280" t="n">
         <v>5</v>
@@ -20745,10 +20203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:05:04</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44421.75351851852</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20812,10 +20268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:47</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44421.75332175926</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20879,10 +20333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:32</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44421.75314814815</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20951,10 +20403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:32</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44421.75314814815</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21018,10 +20468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:29</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44421.75311342593</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21097,10 +20545,8 @@
           <t>5148071345</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:26</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44421.7530787037</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21168,10 +20614,8 @@
           <t>5148070595</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:13</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44421.75292824074</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21231,10 +20675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:12</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44421.75291666666</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21302,10 +20744,8 @@
           <t>5148070095</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:06</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44421.75284722223</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21369,10 +20809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:04:05</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44421.75283564815</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21448,10 +20886,8 @@
           <t>5148059158</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:51</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44421.75267361111</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21511,10 +20947,8 @@
           <t>5148065155</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:49</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44421.75265046296</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21578,10 +21012,8 @@
           <t>5148060066</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:37</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44421.75251157407</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21649,10 +21081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:35</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44421.75248842593</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21716,10 +21146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:28</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44421.75240740741</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21783,10 +21211,8 @@
           <t>5148054284</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:24</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44421.75236111111</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21850,10 +21276,8 @@
           <t>5148057126</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:19</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44421.75230324074</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21929,10 +21353,8 @@
           <t>5148055861</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:03:00</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44421.75208333333</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22004,10 +21426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:51</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44421.75197916666</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22079,10 +21499,8 @@
           <t>5148044865</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:45</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44421.75190972222</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22150,10 +21568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:42</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44421.751875</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22221,10 +21637,8 @@
           <t>5148044416</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:38</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44421.7518287037</v>
       </c>
       <c r="I302" t="n">
         <v>28</v>
@@ -22292,10 +21706,8 @@
           <t>5148044378</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:37</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44421.75181712963</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22363,10 +21775,8 @@
           <t>5148045858</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:28</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44421.75171296296</v>
       </c>
       <c r="I304" t="n">
         <v>33</v>
@@ -22434,10 +21844,8 @@
           <t>5148043779</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:28</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44421.75171296296</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22505,10 +21913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:27</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44421.75170138889</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22576,10 +21982,8 @@
           <t>5148050629</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:22</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44421.75164351852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22647,10 +22051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:19</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44421.75160879629</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22718,10 +22120,8 @@
           <t>5147998497</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:05</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44421.75144675926</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22793,10 +22193,8 @@
           <t>5148042293</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:04</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44421.75143518519</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22868,10 +22266,8 @@
           <t>5148039537</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:02:03</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44421.75142361111</v>
       </c>
       <c r="I311" t="n">
         <v>6</v>
@@ -22931,10 +22327,8 @@
           <t>5148041948</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:59</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44421.75137731482</v>
       </c>
       <c r="I312" t="n">
         <v>23</v>
@@ -22998,10 +22392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:58</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44421.75136574074</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23065,10 +22457,8 @@
           <t>5148038894</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:53</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44421.75130787037</v>
       </c>
       <c r="I314" t="n">
         <v>29</v>
@@ -23132,10 +22522,8 @@
           <t>5148041244</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:47</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44421.75123842592</v>
       </c>
       <c r="I315" t="n">
         <v>2</v>
@@ -23207,10 +22595,8 @@
           <t>5148033507</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:45</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44421.75121527778</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23274,10 +22660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:24</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44421.75097222222</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23345,10 +22729,8 @@
           <t>5148031716</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:12</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44421.75083333333</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23420,10 +22802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:11</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44421.75082175926</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23487,10 +22867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:01:04</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44421.75074074074</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23558,10 +22936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:47</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44421.75054398148</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23637,10 +23013,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:47</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44421.75054398148</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23712,10 +23086,8 @@
           <t>5148027048</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:44</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44421.75050925926</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23783,10 +23155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:43</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44421.75049768519</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23862,10 +23232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:38</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44421.75043981482</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -23933,10 +23301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:37</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44421.75042824074</v>
       </c>
       <c r="I326" t="n">
         <v>5</v>
@@ -24013,10 +23379,8 @@
           <t>5148026283</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:31</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44421.75035879629</v>
       </c>
       <c r="I327" t="n">
         <v>23</v>
@@ -24081,10 +23445,8 @@
           <t>5148024097</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:29</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44421.75033564815</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24148,10 +23510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:28</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44421.75032407408</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24220,10 +23580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:27</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44421.7503125</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24299,10 +23657,8 @@
           <t>5148023969</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:27</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44421.7503125</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24370,10 +23726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:12</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44421.75013888889</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24445,10 +23799,8 @@
           <t>5148023199</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:11</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44421.75012731482</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24524,10 +23876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:08</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44421.75009259259</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24591,10 +23941,8 @@
           <t>5148022929</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:00:06</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44421.75006944445</v>
       </c>
       <c r="I335" t="n">
         <v>12</v>
@@ -24662,10 +24010,8 @@
           <t>5148018083</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:57</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44421.74996527778</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24741,10 +24087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:56</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44421.7499537037</v>
       </c>
       <c r="I337" t="n">
         <v>2</v>
@@ -24812,10 +24156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:56</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44421.7499537037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24891,10 +24233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:55</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44421.74994212963</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24958,10 +24298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:55</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44421.74994212963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25025,10 +24363,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:52</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44421.74990740741</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25092,10 +24428,8 @@
           <t>5148017640</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:47</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44421.74984953704</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25167,10 +24501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:44</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44421.74981481482</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25234,10 +24566,8 @@
           <t>5148017242</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:38</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44421.74974537037</v>
       </c>
       <c r="I344" t="n">
         <v>234</v>
@@ -25313,10 +24643,8 @@
           <t>5148021379</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:37</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44421.7497337963</v>
       </c>
       <c r="I345" t="n">
         <v>8</v>
@@ -25384,10 +24712,8 @@
           <t>5148001425</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:36</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44421.74972222222</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25459,10 +24785,8 @@
           <t>5148017071</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:35</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44421.74971064815</v>
       </c>
       <c r="I347" t="n">
         <v>5</v>
@@ -25538,10 +24862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:33</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44421.7496875</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25605,10 +24927,8 @@
           <t>5148012895</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:32</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44421.74967592592</v>
       </c>
       <c r="I349" t="n">
         <v>17</v>
@@ -25676,10 +24996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:30</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44421.74965277778</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25757,10 +25075,8 @@
           <t>5148016612</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:25</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44421.74959490741</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -25828,10 +25144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:23</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44421.74957175926</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25899,10 +25213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:15</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44421.74947916667</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -25974,10 +25286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:13</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44421.74945601852</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26041,10 +25351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:09</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44421.74940972222</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26104,10 +25412,8 @@
           <t>5148015810</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:07</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44421.74938657408</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26176,10 +25482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:59:01</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44421.74931712963</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26255,10 +25559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:57</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44421.74927083333</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26322,10 +25624,8 @@
           <t>5148010655</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:52</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44421.74921296296</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26393,10 +25693,8 @@
           <t>5147953931</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:52</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44421.74921296296</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26468,10 +25766,8 @@
           <t>5147999955</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:48</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44421.74916666667</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26531,10 +25827,8 @@
           <t>5148004794</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:35</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44421.74901620371</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26606,10 +25900,8 @@
           <t>5148001425</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:29</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44421.74894675926</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26677,10 +25969,8 @@
           <t>5148004234</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:26</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44421.74891203704</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -26740,10 +26030,8 @@
           <t>5147998497</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:17</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44421.74880787037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26811,10 +26099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:17</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44421.74880787037</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26886,10 +26172,8 @@
           <t>5148003695</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:17</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44421.74880787037</v>
       </c>
       <c r="I367" t="n">
         <v>11</v>
@@ -26957,10 +26241,8 @@
           <t>5148006979</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:12</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44421.74875</v>
       </c>
       <c r="I368" t="n">
         <v>78</v>
@@ -27036,10 +26318,8 @@
           <t>5147998168</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:10</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44421.74872685185</v>
       </c>
       <c r="I369" t="n">
         <v>10</v>
@@ -27115,10 +26395,8 @@
           <t>5148006602</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:04</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44421.74865740741</v>
       </c>
       <c r="I370" t="n">
         <v>14</v>
@@ -27182,10 +26460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:03</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44421.74864583334</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27253,10 +26529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:03</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44421.74864583334</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27329,10 +26603,8 @@
           <t>5148002852</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:02</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44421.74863425926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27396,10 +26668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:58:01</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44421.74862268518</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27471,10 +26741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:55</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44421.74855324074</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27542,10 +26810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:50</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44421.74849537037</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27617,10 +26883,8 @@
           <t>5148002091</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:48</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44421.74847222222</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27696,10 +26960,8 @@
           <t>5148005539</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:43</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44421.74841435185</v>
       </c>
       <c r="I378" t="n">
         <v>8</v>
@@ -27767,10 +27029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:41</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44421.74839120371</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -27838,10 +27098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:40</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44421.74837962963</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27913,10 +27171,8 @@
           <t>5148001425</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:36</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44421.74833333334</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -27984,10 +27240,8 @@
           <t>5147996078</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:26</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44421.74821759259</v>
       </c>
       <c r="I382" t="n">
         <v>3</v>
@@ -28055,10 +27309,8 @@
           <t>5148000851</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:26</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44421.74821759259</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28130,10 +27382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:25</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44421.74820601852</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28209,10 +27459,8 @@
           <t>5147994524</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:24</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44421.74819444444</v>
       </c>
       <c r="I385" t="n">
         <v>12</v>
@@ -28276,10 +27524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:22</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44421.7481712963</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28343,10 +27589,8 @@
           <t>5147993932</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:12</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44421.74805555555</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -28418,10 +27662,8 @@
           <t>5147993821</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:10</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44421.74803240741</v>
       </c>
       <c r="I388" t="n">
         <v>3</v>
@@ -28497,10 +27739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:06</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44421.74798611111</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28576,10 +27816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:02</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44421.74793981481</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28643,10 +27881,8 @@
           <t>5147984875</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:57:00</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44421.74791666667</v>
       </c>
       <c r="I391" t="n">
         <v>4</v>
@@ -28710,10 +27946,8 @@
           <t>5147989300</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:57</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44421.74788194444</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28781,10 +28015,8 @@
           <t>5147989168</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:55</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44421.7478587963</v>
       </c>
       <c r="I393" t="n">
         <v>2</v>
@@ -28848,10 +28080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:51</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44421.7478125</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -28919,10 +28149,8 @@
           <t>5147984454</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:51</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44421.7478125</v>
       </c>
       <c r="I395" t="n">
         <v>3</v>
@@ -28998,10 +28226,8 @@
           <t>5147992797</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:49</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44421.74778935185</v>
       </c>
       <c r="I396" t="n">
         <v>19</v>
@@ -29085,10 +28311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:46</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44421.74775462963</v>
       </c>
       <c r="I397" t="n">
         <v>427</v>
@@ -29152,10 +28376,8 @@
           <t>5147992257</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:39</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44421.74767361111</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29231,10 +28453,8 @@
           <t>5147992247</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:38</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44421.74766203704</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29298,10 +28518,8 @@
           <t>5147992062</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:35</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44421.74762731481</v>
       </c>
       <c r="I400" t="n">
         <v>4</v>
@@ -29369,10 +28587,8 @@
           <t>5147983747</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:35</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44421.74762731481</v>
       </c>
       <c r="I401" t="n">
         <v>14</v>
@@ -29440,10 +28656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:32</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44421.74759259259</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29520,10 +28734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:25</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44421.74751157407</v>
       </c>
       <c r="I403" t="n">
         <v>309</v>
@@ -29591,10 +28803,8 @@
           <t>5147987338</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:21</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44421.74746527777</v>
       </c>
       <c r="I404" t="n">
         <v>9</v>
@@ -29666,10 +28876,8 @@
           <t>5147987152</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:18</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44421.74743055556</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29741,10 +28949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:56:00</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44421.74722222222</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29813,10 +29019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:59</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44421.74721064815</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -29888,10 +29092,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:59</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44421.74721064815</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29959,10 +29161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:57</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44421.7471875</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30038,10 +29238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:57</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44421.7471875</v>
       </c>
       <c r="I410" t="n">
         <v>186</v>
@@ -30113,10 +29311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:56</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44421.74717592593</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30193,10 +29389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:54</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44421.74715277777</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30260,10 +29454,8 @@
           <t>5147981859</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:54</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44421.74715277777</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30335,10 +29527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:52</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44421.74712962963</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30402,10 +29592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:51</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44421.74711805556</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30465,10 +29653,8 @@
           <t>5147979864</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:51</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44421.74711805556</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30544,10 +29730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:50</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44421.74710648148</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30615,10 +29799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:50</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44421.74710648148</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30678,10 +29860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:49</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44421.7470949074</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30757,10 +29937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:45</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44421.74704861111</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30836,10 +30014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:38</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44421.74696759259</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30907,10 +30083,8 @@
           <t>5147974662</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:35</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44421.74693287037</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30978,10 +30152,8 @@
           <t>5147974587</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:34</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44421.7469212963</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31049,10 +30221,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:34</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44421.7469212963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31120,10 +30290,8 @@
           <t>5147980574</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:26</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44421.7468287037</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31199,10 +30367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:25</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44421.74681712963</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31266,10 +30432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:18</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44421.74673611111</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31337,10 +30501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:55:05</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44421.74658564815</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31404,10 +30566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:59</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44421.7465162037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31483,10 +30643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:54</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44421.74645833333</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31550,10 +30708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:54</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44421.74645833333</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31622,10 +30778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:51</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44421.74642361111</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31689,10 +30843,8 @@
           <t>5147972232</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:51</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44421.74642361111</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -31764,10 +30916,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:49</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44421.74640046297</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31835,10 +30985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:39</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44421.74628472222</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -31910,10 +31058,8 @@
           <t>5147971168</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:33</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44421.74621527778</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31977,10 +31123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:31</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44421.74619212963</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32056,10 +31200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:30</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44421.74618055556</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32131,10 +31273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:25</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44421.74612268519</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32194,10 +31334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:24</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44421.74611111111</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32274,10 +31412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:24</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44421.74611111111</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32345,10 +31481,8 @@
           <t>5147975268</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:21</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44421.74607638889</v>
       </c>
       <c r="I442" t="n">
         <v>26</v>
@@ -32420,10 +31554,8 @@
           <t>5147967538</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:21</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44421.74607638889</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32487,10 +31619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:19</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44421.74605324074</v>
       </c>
       <c r="I444" t="n">
         <v>5</v>
@@ -32562,10 +31692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:14</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44421.74599537037</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32625,10 +31753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:06</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44421.74590277778</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32700,10 +31826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:05</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44421.7458912037</v>
       </c>
       <c r="I447" t="n">
         <v>2</v>
@@ -32771,10 +31895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:04</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44421.74587962963</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32846,10 +31968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:02</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44421.74585648148</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -32909,10 +32029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:54:00</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44421.74583333333</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -32989,10 +32107,8 @@
           <t>5147966473</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:59</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44421.74582175926</v>
       </c>
       <c r="I451" t="n">
         <v>41</v>
@@ -33068,10 +32184,8 @@
           <t>5147966478</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:59</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44421.74582175926</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33143,10 +32257,8 @@
           <t>5147959115</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:58</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44421.74581018519</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33218,10 +32330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:58</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44421.74581018519</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33293,10 +32403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:57</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44421.74579861111</v>
       </c>
       <c r="I455" t="n">
         <v>2</v>
@@ -33372,10 +32480,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:53</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44421.74575231481</v>
       </c>
       <c r="I456" t="n">
         <v>20</v>
@@ -33439,10 +32545,8 @@
           <t>5147958441</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:45</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44421.74565972222</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33510,10 +32614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:43</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44421.74563657407</v>
       </c>
       <c r="I458" t="n">
         <v>244</v>
@@ -33577,10 +32679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:40</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44421.74560185185</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33656,10 +32756,8 @@
           <t>5147957586</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:29</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44421.74547453703</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33735,10 +32833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:28</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44421.74546296296</v>
       </c>
       <c r="I461" t="n">
         <v>12</v>
@@ -33814,10 +32910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:27</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44421.74545138889</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33885,10 +32979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:25</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44421.74542824074</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -33960,10 +33052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:24</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44421.74541666666</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34035,10 +33125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:22</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44421.74539351852</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34102,10 +33190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:20</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44421.74537037037</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34173,10 +33259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:17</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44421.74533564815</v>
       </c>
       <c r="I467" t="n">
         <v>2</v>
@@ -34240,10 +33324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:17</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44421.74533564815</v>
       </c>
       <c r="I468" t="n">
         <v>4</v>
@@ -34319,10 +33401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:15</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44421.7453125</v>
       </c>
       <c r="I469" t="n">
         <v>38</v>
@@ -34399,10 +33479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:08</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44421.74523148148</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34473,10 +33551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:08</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44421.74523148148</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34544,10 +33620,8 @@
           <t>5147953931</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:07</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44421.74521990741</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34623,10 +33697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:53:04</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44421.74518518519</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34690,10 +33762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:59</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44421.74512731482</v>
       </c>
       <c r="I474" t="n">
         <v>1112</v>
@@ -34769,10 +33839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:59</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44421.74512731482</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34841,10 +33909,8 @@
           <t>5147953252</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:53</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44421.74505787037</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34920,10 +33986,8 @@
           <t>5147953108</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:50</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44421.74502314815</v>
       </c>
       <c r="I477" t="n">
         <v>156</v>
@@ -34987,10 +34051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:48</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44421.745</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35054,10 +34116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:44</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44421.7449537037</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35133,10 +34193,8 @@
           <t>5147949699</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:43</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44421.74494212963</v>
       </c>
       <c r="I480" t="n">
         <v>3</v>
@@ -35204,10 +34262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:41</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44421.74491898148</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35271,10 +34327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:39</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44421.74489583333</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35346,10 +34400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:35</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44421.74484953703</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35427,10 +34479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:33</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44421.74482638889</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35498,10 +34548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:32</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44421.74481481482</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35569,10 +34617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:31</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44421.74480324074</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35644,10 +34690,8 @@
           <t>5147943730</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:31</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44421.74480324074</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35723,10 +34767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:29</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44421.74478009259</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35802,10 +34844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:28</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44421.74476851852</v>
       </c>
       <c r="I489" t="n">
         <v>9</v>
@@ -35881,10 +34921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:20</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44421.74467592593</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35948,10 +34986,8 @@
           <t>5147951680</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:19</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44421.74466435185</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36015,10 +35051,8 @@
           <t>5147943778</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:16</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44421.74462962963</v>
       </c>
       <c r="I492" t="n">
         <v>17</v>
@@ -36095,10 +35129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:15</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44421.74461805556</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36158,10 +35190,8 @@
           <t>5147943730</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:15</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44421.74461805556</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36237,10 +35267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:14</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44421.74460648148</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36312,10 +35340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:13</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44421.74459490741</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36383,10 +35409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:09</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44421.74454861111</v>
       </c>
       <c r="I497" t="n">
         <v>5</v>
@@ -36462,10 +35486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:08</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44421.74453703704</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36534,10 +35556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:07</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44421.74452546296</v>
       </c>
       <c r="I499" t="n">
         <v>107</v>
@@ -36616,10 +35636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:06</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44421.74451388889</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36695,10 +35713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:05</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44421.74450231482</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36762,10 +35778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:04</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44421.74449074074</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36841,10 +35855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:52:01</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44421.74445601852</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36912,10 +35924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:59</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44421.74443287037</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -36987,10 +35997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:57</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44421.74440972223</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37058,10 +36066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:55</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44421.74438657407</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37125,10 +36131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:54</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44421.744375</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37192,10 +36196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:47</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44421.74429398148</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37267,10 +36269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:45</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44421.74427083333</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37346,10 +36346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:40</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44421.74421296296</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37413,10 +36411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:39</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44421.74420138889</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37484,10 +36480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:36</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44421.74416666666</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37555,10 +36549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:36</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44421.74416666666</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37622,10 +36614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:34</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44421.74414351852</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37701,10 +36691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:32</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44421.74412037037</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37772,10 +36760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:31</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44421.74410879629</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37847,10 +36833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:30</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44421.74409722222</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -37914,10 +36898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:26</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44421.74405092592</v>
       </c>
       <c r="I518" t="n">
         <v>2</v>
@@ -37993,10 +36975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:25</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44421.74403935186</v>
       </c>
       <c r="I519" t="n">
         <v>101</v>
@@ -38064,10 +37044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:22</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44421.74400462963</v>
       </c>
       <c r="I520" t="n">
         <v>6</v>
@@ -38131,10 +37109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:22</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44421.74400462963</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38210,10 +37186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:20</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44421.74398148148</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38290,10 +37264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:17</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44421.74394675926</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38366,10 +37338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:17</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44421.74394675926</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38446,10 +37416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:16</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44421.74393518519</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38517,10 +37485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:13</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44421.74390046296</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38592,10 +37558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:13</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44421.74390046296</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38655,10 +37619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:12</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44421.74388888889</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -38727,10 +37689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:12</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44421.74388888889</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -38798,10 +37758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:10</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44421.74386574074</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38877,10 +37835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:09</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44421.74385416666</v>
       </c>
       <c r="I531" t="n">
         <v>110</v>
@@ -38948,10 +37904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:08</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44421.74384259259</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39015,10 +37969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:07</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44421.74383101852</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39086,10 +38038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:04</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44421.74379629629</v>
       </c>
       <c r="I534" t="n">
         <v>4</v>
@@ -39165,10 +38115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:03</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44421.74378472222</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39244,10 +38192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:02</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44421.74377314815</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39319,10 +38265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:51:01</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44421.74376157407</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39398,10 +38342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:58</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44421.74372685186</v>
       </c>
       <c r="I538" t="n">
         <v>17</v>
@@ -39477,10 +38419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:56</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44421.7437037037</v>
       </c>
       <c r="I539" t="n">
         <v>5</v>
@@ -39548,10 +38488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:56</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44421.7437037037</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39615,10 +38553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:55</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44421.74369212963</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39687,10 +38623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:55</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44421.74369212963</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39762,10 +38696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:53</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44421.74366898148</v>
       </c>
       <c r="I543" t="n">
         <v>835</v>
@@ -39833,10 +38765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:51</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44421.74364583333</v>
       </c>
       <c r="I544" t="n">
         <v>133</v>
@@ -39905,10 +38835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:51</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44421.74364583333</v>
       </c>
       <c r="I545" t="n">
         <v>5</v>
@@ -39976,10 +38904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:51</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44421.74364583333</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40055,10 +38981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:47</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44421.74359953704</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40134,10 +39058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:46</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44421.74358796296</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40209,10 +39131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:44</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44421.74356481482</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40280,10 +39200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:43</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44421.74355324074</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40347,10 +39265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:43</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44421.74355324074</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40426,10 +39342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:42</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44421.74354166666</v>
       </c>
       <c r="I552" t="n">
         <v>1653</v>
@@ -40497,10 +39411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:41</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44421.74353009259</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40576,10 +39488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:41</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44421.74353009259</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40651,10 +39561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:38</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44421.74349537037</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40726,10 +39634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:37</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44421.74348379629</v>
       </c>
       <c r="I556" t="n">
         <v>10</v>
@@ -40793,10 +39699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:36</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44421.74347222222</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40860,10 +39764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:34</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44421.74344907407</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40931,10 +39833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:30</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44421.74340277778</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41006,10 +39906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:30</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44421.74340277778</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41085,10 +39983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:23</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44421.74332175926</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41164,10 +40060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:50:17</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44421.74325231482</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
